--- a/graph_generation/results/hermes_llama2/level_2/k_1.xlsx
+++ b/graph_generation/results/hermes_llama2/level_2/k_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="80">
   <si>
     <t>prompt</t>
   </si>
@@ -53,15 +53,15 @@
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node J? Return the sequence of nodes in response.
    A B C D E F G H I J
- A 0 1 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 0 0 0 0
- D 0 0 1 0 1 0 0 0 1 0
- E 0 0 0 1 0 1 0 0 0 0
- F 0 0 0 0 1 0 1 0 0 0
- G 0 0 0 0 0 1 0 1 0 0
- H 0 0 0 0 0 0 1 0 0 0
- I 0 0 0 1 0 0 0 0 0 1
+ A 0 1 1 0 0 0 0 0 0 0
+ B 1 0 0 0 0 0 0 0 0 0
+ C 1 0 0 1 0 0 0 1 0 0
+ D 0 0 1 0 1 1 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0 0
+ F 0 0 0 1 0 0 1 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0
+ H 0 0 1 0 0 0 0 0 1 0
+ I 0 0 0 0 0 0 0 1 0 1
  J 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
@@ -91,14 +91,14 @@
    A B C D E F G H I J
  A 0 1 0 0 0 0 0 0 0 0
  B 1 0 1 0 0 0 0 0 0 0
- C 0 1 0 1 0 1 0 0 0 0
+ C 0 1 0 1 0 0 1 0 0 0
  D 0 0 1 0 1 0 0 0 0 0
- E 0 0 0 1 0 0 0 0 0 0
- F 0 0 1 0 0 0 1 1 0 0
- G 0 0 0 0 0 1 0 0 0 0
- H 0 0 0 0 0 1 0 0 1 1
- I 0 0 0 0 0 0 0 1 0 0
- J 0 0 0 0 0 0 0 1 0 0
+ E 0 0 0 1 0 1 0 0 0 0
+ F 0 0 0 0 1 0 0 0 0 0
+ G 0 0 1 0 0 0 0 1 0 0
+ H 0 0 0 0 0 0 1 0 1 0
+ I 0 0 0 0 0 0 0 1 0 1
+ J 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
@@ -126,15 +126,15 @@
 What is the shortest path from node A to node J? Return the sequence of nodes in response.
    A B C D E F G H I J
  A 0 1 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 0 0 0 0 0
- C 0 1 0 1 0 1 0 0 0 0
- D 0 0 1 0 1 0 0 0 0 0
- E 0 0 0 1 0 0 0 0 0 0
- F 0 0 1 0 0 0 1 0 0 0
- G 0 0 0 0 0 1 0 1 0 0
- H 0 0 0 0 0 0 1 0 1 1
- I 0 0 0 0 0 0 0 1 0 0
- J 0 0 0 0 0 0 0 1 0 0
+ B 1 0 1 1 0 0 0 0 0 1
+ C 0 1 0 0 0 0 0 0 0 0
+ D 0 1 0 0 1 0 0 0 0 0
+ E 0 0 0 1 0 1 1 0 1 0
+ F 0 0 0 0 1 0 0 0 0 0
+ G 0 0 0 0 1 0 0 1 0 0
+ H 0 0 0 0 0 0 1 0 0 0
+ I 0 0 0 0 1 0 0 0 0 0
+ J 0 1 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -161,13 +161,13 @@
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node J? Return the sequence of nodes in response.
    A B C D E F G H I J
- A 0 1 0 0 0 0 0 0 0 0
- B 1 0 1 1 0 0 1 0 0 0
+ A 0 1 0 1 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0
  C 0 1 0 0 0 0 0 0 0 0
- D 0 1 0 0 1 0 0 0 0 0
- E 0 0 0 1 0 1 0 0 0 0
+ D 1 0 0 0 1 0 0 0 0 0
+ E 0 0 0 1 0 1 1 0 0 0
  F 0 0 0 0 1 0 0 0 0 0
- G 0 1 0 0 0 0 0 1 1 0
+ G 0 0 0 0 1 0 0 1 1 0
  H 0 0 0 0 0 0 1 0 0 0
  I 0 0 0 0 0 0 1 0 0 1
  J 0 0 0 0 0 0 0 0 1 0
@@ -197,15 +197,15 @@
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node J? Return the sequence of nodes in response.
    A B C D E F G H I J
- A 0 1 0 0 0 0 0 0 0 0
- B 1 0 1 1 0 0 0 0 0 0
+ A 0 1 0 0 0 1 0 0 0 0
+ B 1 0 1 1 1 0 0 0 0 0
  C 0 1 0 0 0 0 0 0 0 0
- D 0 1 0 0 1 1 0 1 1 0
- E 0 0 0 1 0 0 0 0 0 0
- F 0 0 0 1 0 0 1 0 0 0
+ D 0 1 0 0 0 0 0 0 0 0
+ E 0 1 0 0 0 0 0 0 0 0
+ F 1 0 0 0 0 0 1 1 1 0
  G 0 0 0 0 0 1 0 0 0 0
- H 0 0 0 1 0 0 0 0 0 0
- I 0 0 0 1 0 0 0 0 0 1
+ H 0 0 0 0 0 1 0 0 0 0
+ I 0 0 0 0 0 1 0 0 0 1
  J 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
@@ -233,16 +233,16 @@
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node J? Return the sequence of nodes in response.
    A B C D E F G H I J
- A 0 1 1 0 0 1 0 0 0 0
- B 1 0 0 0 0 0 0 0 0 0
- C 1 0 0 1 0 0 0 0 0 0
- D 0 0 1 0 1 0 0 0 0 0
+ A 0 1 0 0 0 0 0 0 1 0
+ B 1 0 1 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 0 0 0
+ D 0 0 1 0 1 1 0 0 0 0
  E 0 0 0 1 0 0 0 0 0 0
- F 1 0 0 0 0 0 1 0 0 0
- G 0 0 0 0 0 1 0 1 0 1
- H 0 0 0 0 0 0 1 0 1 0
- I 0 0 0 0 0 0 0 1 0 0
- J 0 0 0 0 0 0 1 0 0 0
+ F 0 0 0 1 0 0 1 1 0 0
+ G 0 0 0 0 0 1 0 0 0 0
+ H 0 0 0 0 0 1 0 0 0 0
+ I 1 0 0 0 0 0 0 0 0 1
+ J 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
@@ -272,12 +272,12 @@
  A 0 1 0 0 0 0 0 0 0 0
  B 1 0 1 1 0 0 0 0 0 0
  C 0 1 0 0 0 0 0 0 0 0
- D 0 1 0 0 1 0 0 0 1 0
- E 0 0 0 1 0 1 0 0 0 0
- F 0 0 0 0 1 0 1 1 0 0
+ D 0 1 0 0 1 0 0 0 0 0
+ E 0 0 0 1 0 1 0 1 0 0
+ F 0 0 0 0 1 0 1 0 0 0
  G 0 0 0 0 0 1 0 0 0 0
- H 0 0 0 0 0 1 0 0 0 0
- I 0 0 0 1 0 0 0 0 0 1
+ H 0 0 0 0 1 0 0 0 1 0
+ I 0 0 0 0 0 0 0 1 0 1
  J 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
@@ -305,16 +305,16 @@
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node J? Return the sequence of nodes in response.
    A B C D E F G H I J
- A 0 1 1 0 0 0 0 0 0 0
+ A 0 1 1 0 0 0 0 0 0 1
  B 1 0 0 0 0 0 0 0 0 0
- C 1 0 0 1 1 0 0 0 0 0
- D 0 0 1 0 0 0 0 0 0 0
- E 0 0 1 0 0 1 0 0 0 0
- F 0 0 0 0 1 0 1 0 0 0
- G 0 0 0 0 0 1 0 1 0 0
- H 0 0 0 0 0 0 1 0 1 0
- I 0 0 0 0 0 0 0 1 0 1
- J 0 0 0 0 0 0 0 0 1 0
+ C 1 0 0 1 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 0 0 0
+ E 0 0 0 1 0 1 1 1 0 0
+ F 0 0 0 0 1 0 0 0 0 0
+ G 0 0 0 0 1 0 0 0 0 0
+ H 0 0 0 0 1 0 0 0 1 0
+ I 0 0 0 0 0 0 0 1 0 0
+ J 1 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -342,13 +342,13 @@
 What is the shortest path from node A to node J? Return the sequence of nodes in response.
    A B C D E F G H I J
  A 0 1 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 0 1 0 0 0
- C 0 1 0 1 1 1 0 0 0 0
+ B 1 0 1 0 1 0 0 1 0 0
+ C 0 1 0 1 0 0 0 0 0 0
  D 0 0 1 0 0 0 0 0 0 0
- E 0 0 1 0 0 0 0 0 0 0
- F 0 0 1 0 0 0 0 0 0 0
- G 0 1 0 0 0 0 0 1 0 0
- H 0 0 0 0 0 0 1 0 1 0
+ E 0 1 0 0 0 1 0 0 0 0
+ F 0 0 0 0 1 0 1 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0
+ H 0 1 0 0 0 0 0 0 1 0
  I 0 0 0 0 0 0 0 1 0 1
  J 0 0 0 0 0 0 0 0 1 0
     </t>
@@ -378,40 +378,46 @@
 What is the shortest path from node A to node J? Return the sequence of nodes in response.
    A B C D E F G H I J
  A 0 1 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 0 0 0 0
- D 0 0 1 0 1 0 0 0 1 0
- E 0 0 0 1 0 1 1 1 0 0
- F 0 0 0 0 1 0 0 0 0 0
- G 0 0 0 0 1 0 0 0 0 0
- H 0 0 0 0 1 0 0 0 0 0
- I 0 0 0 1 0 0 0 0 0 1
+ B 1 0 1 1 0 0 0 0 1 0
+ C 0 1 0 0 0 0 0 0 0 0
+ D 0 1 0 0 1 0 0 0 0 0
+ E 0 0 0 1 0 1 0 0 0 0
+ F 0 0 0 0 1 0 1 0 0 0
+ G 0 0 0 0 0 1 0 1 0 0
+ H 0 0 0 0 0 0 1 0 0 0
+ I 0 1 0 0 0 0 0 0 0 1
  J 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
-    <t>A -&gt; B -&gt; C -&gt; D -&gt; I -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; C -&gt; F -&gt; H -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; C -&gt; F -&gt; G -&gt; H -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; G -&gt; I -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; D -&gt; I -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; F -&gt; G -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; C -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; G -&gt; H -&gt; I -&gt; J</t>
+    <t>A -&gt; C -&gt; H -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; D -&gt; E -&gt; G -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; F -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; D -&gt; E -&gt; H -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; H -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; I -&gt; J</t>
   </si>
   <si>
     <t>The shortest path from node A to node J is A -&gt; I -&gt; J.</t>
@@ -420,10 +426,13 @@
     <t>The shortest path from node A to node J is A -&gt; H -&gt; I -&gt; J.</t>
   </si>
   <si>
-    <t>The shortest path from node A to node J is A -&gt; G -&gt; H -&gt; I -&gt; J.</t>
-  </si>
-  <si>
     <t>Wrong</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>Incorrect</t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 20 nodes labelled A to T. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
@@ -461,24 +470,24 @@
    A B C D E F G H I J K L M N O P Q R S T
  A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
  D 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  E 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0
+ F 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1
+ I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
  Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ T 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -515,24 +524,24 @@
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node T? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
- A 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0
  K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0
+ L 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
  Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1
+ R 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1
  S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
  T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
     </t>
@@ -571,24 +580,24 @@
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node T? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
- A 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0
  E 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0
  H 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0
  L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0
  P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+ Q 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0
  S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
  T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
     </t>
@@ -627,26 +636,26 @@
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node T? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
- A 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- K 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1
- M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0
+ D 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0
  Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
  R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
@@ -683,25 +692,25 @@
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node T? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
- A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0
+ A 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
+ B 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ L 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
  Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
  T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
@@ -739,26 +748,26 @@
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node T? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
- A 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ A 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ L 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
     </t>
   </si>
   <si>
@@ -795,26 +804,26 @@
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node T? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
- A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0
+ A 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0
  O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
+ P 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1
  R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
     </t>
   </si>
   <si>
@@ -851,26 +860,26 @@
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node T? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
- A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1
- C 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ B 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  D 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0
- M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- T 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ N 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
@@ -907,26 +916,26 @@
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node T? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
- A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
  C 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0
+ D 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0
  P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
  Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
     </t>
   </si>
   <si>
@@ -963,57 +972,57 @@
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node T? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
- A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
+ A 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1
  Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
  R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; C -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; L -&gt; P -&gt; S -&gt; T</t>
-  </si>
-  <si>
-    <t>A -&gt; F -&gt; G -&gt; J -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; R -&gt; T</t>
-  </si>
-  <si>
-    <t>A -&gt; D -&gt; N -&gt; Q -&gt; R -&gt; S -&gt; T</t>
-  </si>
-  <si>
-    <t>A -&gt; K -&gt; L -&gt; T</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; I -&gt; M -&gt; O -&gt; P -&gt; S -&gt; T</t>
-  </si>
-  <si>
-    <t>A -&gt; C -&gt; F -&gt; G -&gt; H -&gt; I -&gt; K -&gt; L -&gt; M -&gt; Q -&gt; R -&gt; S -&gt; T</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; D -&gt; G -&gt; L -&gt; M -&gt; N -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; T</t>
-  </si>
-  <si>
-    <t>A -&gt; E -&gt; H -&gt; M -&gt; N -&gt; O -&gt; R -&gt; S -&gt; T</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; F -&gt; H -&gt; K -&gt; M -&gt; O -&gt; S -&gt; T</t>
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; T</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; D -&gt; E -&gt; F -&gt; I -&gt; L -&gt; M -&gt; R -&gt; T</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; D -&gt; G -&gt; R -&gt; S -&gt; T</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; C -&gt; D -&gt; J -&gt; N -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T</t>
+  </si>
+  <si>
+    <t>A -&gt; L -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T</t>
+  </si>
+  <si>
+    <t>A -&gt; L -&gt; M -&gt; O -&gt; R -&gt; T</t>
+  </si>
+  <si>
+    <t>A -&gt; C -&gt; J -&gt; P -&gt; Q -&gt; T</t>
+  </si>
+  <si>
+    <t>A -&gt; N -&gt; O -&gt; P -&gt; S -&gt; T</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; G -&gt; H -&gt; O -&gt; R -&gt; T</t>
+  </si>
+  <si>
+    <t>A -&gt; J -&gt; L -&gt; M -&gt; N -&gt; P -&gt; T</t>
   </si>
   <si>
     <t>The shortest path from node A to node T is A -&gt; E -&gt; F -&gt; W -&gt; T.</t>
@@ -1051,28 +1060,28 @@
  W 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0
 Solution: J -&gt; B -&gt; K -&gt; D -&gt; E
  Given these examples, answer the following quesiton.
-What is the shortest path from node I to node N? Return the sequence of nodes in response.
+What is the shortest path from node A to node H? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
- A 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1
- D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- E 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- G 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0
- H 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0
- I 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0
+ A 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1
+ C 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0
+ F 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ H 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0
  K 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- L 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0
- N 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- O 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0
- P 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- R 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0
- S 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- T 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0
+ N 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ P 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0
+ Q 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ S 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1
+ T 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
@@ -1105,28 +1114,28 @@
  W 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0
 Solution: J -&gt; B -&gt; K -&gt; D -&gt; E
  Given these examples, answer the following quesiton.
-What is the shortest path from node M to node N? Return the sequence of nodes in response.
+What is the shortest path from node A to node J? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0
- B 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0
- F 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1
- I 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- K 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- M 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0
- N 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- R 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- S 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0
- T 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ A 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0
+ B 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ D 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ E 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0
+ F 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ G 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ I 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ K 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ N 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0
+ Q 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ T 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -1159,28 +1168,28 @@
  W 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0
 Solution: J -&gt; B -&gt; K -&gt; D -&gt; E
  Given these examples, answer the following quesiton.
-What is the shortest path from node S to node Q? Return the sequence of nodes in response.
+What is the shortest path from node T to node Q? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
- D 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0
- E 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1
- I 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- L 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0
- P 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- R 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- S 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ B 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ D 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1
+ E 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0
+ F 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ H 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0
+ L 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ M 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ N 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1
+ P 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ R 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0
+ T 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -1213,28 +1222,28 @@
  W 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0
 Solution: J -&gt; B -&gt; K -&gt; D -&gt; E
  Given these examples, answer the following quesiton.
-What is the shortest path from node Q to node F? Return the sequence of nodes in response.
+What is the shortest path from node Q to node E? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
- A 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- D 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- G 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1
- H 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- K 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- M 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0
- O 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- R 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0
- T 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ A 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0
+ B 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1
+ D 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ G 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0
+ I 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ J 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1
+ K 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ M 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1
+ O 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ P 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ T 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -1267,28 +1276,28 @@
  W 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0
 Solution: J -&gt; B -&gt; K -&gt; D -&gt; E
  Given these examples, answer the following quesiton.
-What is the shortest path from node A to node I? Return the sequence of nodes in response.
+What is the shortest path from node G to node C? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
- A 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0
- B 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- D 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0
- E 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
- F 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0
- L 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- N 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
- P 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- Q 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- S 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ D 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1
+ E 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0
+ J 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ O 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0
+ P 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ S 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ T 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -1321,28 +1330,28 @@
  W 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0
 Solution: J -&gt; B -&gt; K -&gt; D -&gt; E
  Given these examples, answer the following quesiton.
-What is the shortest path from node K to node J? Return the sequence of nodes in response.
+What is the shortest path from node A to node G? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
- A 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- C 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0
- D 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0
- H 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- I 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0
- J 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1
- M 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0
- R 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- S 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0
+ D 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0
+ F 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0
+ G 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ I 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0
+ J 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ L 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ N 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1
+ R 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ S 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0
     </t>
   </si>
   <si>
@@ -1375,28 +1384,28 @@
  W 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0
 Solution: J -&gt; B -&gt; K -&gt; D -&gt; E
  Given these examples, answer the following quesiton.
-What is the shortest path from node B to node M? Return the sequence of nodes in response.
+What is the shortest path from node L to node F? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- B 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1
- E 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- F 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0
- G 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- H 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1
- J 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- M 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0
- P 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- T 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0
+ A 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1
+ B 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0
+ C 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0
+ F 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
+ L 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ N 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0
+ S 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ T 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -1429,28 +1438,28 @@
  W 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0
 Solution: J -&gt; B -&gt; K -&gt; D -&gt; E
  Given these examples, answer the following quesiton.
-What is the shortest path from node M to node B? Return the sequence of nodes in response.
+What is the shortest path from node A to node G? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- B 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0
- E 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- F 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0
- H 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- K 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0
- L 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- O 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0
- S 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- T 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ B 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ E 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ H 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ K 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1
+ N 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0
+ O 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ Q 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ S 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0
+ T 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -1483,28 +1492,28 @@
  W 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0
 Solution: J -&gt; B -&gt; K -&gt; D -&gt; E
  Given these examples, answer the following quesiton.
-What is the shortest path from node C to node D? Return the sequence of nodes in response.
+What is the shortest path from node E to node G? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
- A 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- B 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- C 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- F 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- G 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1
- J 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0
- L 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1
- N 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- O 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0
- P 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- R 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0
- S 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0
+ A 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0
+ B 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0
+ D 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ F 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ I 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1
+ K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0
+ L 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ N 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0
+ O 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ P 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0
+ R 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ S 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -1537,92 +1546,86 @@
  W 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0
 Solution: J -&gt; B -&gt; K -&gt; D -&gt; E
  Given these examples, answer the following quesiton.
-What is the shortest path from node P to node J? Return the sequence of nodes in response.
+What is the shortest path from node N to node L? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
- A 0 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0
- D 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- E 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0
- H 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- I 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- K 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- O 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- R 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0
- T 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t>I -&gt; H -&gt; R -&gt; G -&gt; L -&gt; C -&gt; O -&gt; J -&gt; N</t>
-  </si>
-  <si>
-    <t>M -&gt; C -&gt; J -&gt; O -&gt; D -&gt; K -&gt; E -&gt; N</t>
-  </si>
-  <si>
-    <t>S -&gt; C -&gt; P -&gt; J -&gt; Q</t>
-  </si>
-  <si>
-    <t>Q -&gt; S -&gt; N -&gt; G -&gt; R -&gt; F</t>
-  </si>
-  <si>
-    <t>A -&gt; D -&gt; N -&gt; T -&gt; I</t>
-  </si>
-  <si>
-    <t>K -&gt; A -&gt; H -&gt; Q -&gt; I -&gt; G -&gt; J</t>
-  </si>
-  <si>
-    <t>B -&gt; M</t>
-  </si>
-  <si>
-    <t>M -&gt; I -&gt; R -&gt; K -&gt; F -&gt; B</t>
-  </si>
-  <si>
-    <t>C -&gt; A -&gt; O -&gt; P -&gt; B -&gt; F -&gt; S -&gt; D</t>
-  </si>
-  <si>
-    <t>P -&gt; G -&gt; Q -&gt; C -&gt; H -&gt; S -&gt; J</t>
-  </si>
-  <si>
-    <t>The shortest path from node I to node N is I -&gt; L -&gt; O -&gt; N.</t>
-  </si>
-  <si>
-    <t>The shortest path from node M to node N is M -&gt; L -&gt; O -&gt; P -&gt; N.</t>
-  </si>
-  <si>
-    <t>The shortest path from node S to node Q is S -&gt; L -&gt; O -&gt; Q.</t>
-  </si>
-  <si>
-    <t>The shortest path from node Q to node F is Q -&gt; S -&gt; R -&gt; F.</t>
-  </si>
-  <si>
-    <t>The shortest path from node A to node I is A -&gt; H -&gt; I.</t>
-  </si>
-  <si>
-    <t>The shortest path from node K to node J is J -&gt; I -&gt; H -&gt; E -&gt; D -&gt; B -&gt; K.</t>
-  </si>
-  <si>
-    <t>The shortest path from node B to node M is B -&gt; K -&gt; D -&gt; E -&gt; M.</t>
-  </si>
-  <si>
-    <t>The shortest path from node M to node B is M -&gt; L -&gt; O -&gt; P -&gt; B.</t>
-  </si>
-  <si>
-    <t>The shortest path from node C to node D is C -&gt; D.</t>
-  </si>
-  <si>
-    <t>The shortest path from node P to node J is P -&gt; I -&gt; J.</t>
-  </si>
-  <si>
-    <t>Incorrect</t>
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ B 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0
+ C 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ E 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ G 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ I 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ K 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ M 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ O 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ P 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1
+ Q 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0
+ R 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0
+ S 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1
+ T 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t>A -&gt; F -&gt; N -&gt; S -&gt; T -&gt; B -&gt; Q -&gt; I -&gt; H</t>
+  </si>
+  <si>
+    <t>A -&gt; K -&gt; T -&gt; D -&gt; R -&gt; J</t>
+  </si>
+  <si>
+    <t>T -&gt; D -&gt; M -&gt; Q</t>
+  </si>
+  <si>
+    <t>Q -&gt; H -&gt; N -&gt; T -&gt; J -&gt; I -&gt; E</t>
+  </si>
+  <si>
+    <t>G -&gt; K -&gt; J -&gt; B -&gt; P -&gt; C</t>
+  </si>
+  <si>
+    <t>A -&gt; N -&gt; J -&gt; C -&gt; S -&gt; T -&gt; R -&gt; F -&gt; D -&gt; M -&gt; I -&gt; G</t>
+  </si>
+  <si>
+    <t>L -&gt; B -&gt; D -&gt; C -&gt; A -&gt; F</t>
+  </si>
+  <si>
+    <t>A -&gt; T -&gt; O -&gt; G</t>
+  </si>
+  <si>
+    <t>E -&gt; L -&gt; H -&gt; A -&gt; P -&gt; C -&gt; R -&gt; K -&gt; Q -&gt; N -&gt; I -&gt; B -&gt; G</t>
+  </si>
+  <si>
+    <t>N -&gt; R -&gt; B -&gt; E -&gt; H -&gt; Q -&gt; L</t>
+  </si>
+  <si>
+    <t>The shortest path from node A to node H is A -&gt; D -&gt; H.</t>
+  </si>
+  <si>
+    <t>The shortest path from node A to node J is A -&gt; B -&gt; K -&gt; D -&gt; E -&gt; J.</t>
+  </si>
+  <si>
+    <t>The shortest path from node T to node Q is T -&gt; S -&gt; R -&gt; Q.</t>
+  </si>
+  <si>
+    <t>The shortest path from node Q to node E is Q -&gt; I -&gt; H -&gt; E.</t>
+  </si>
+  <si>
+    <t>The shortest path from node A to node G is A -&gt; D -&gt; G.</t>
+  </si>
+  <si>
+    <t>The shortest path from node L to node F is L -&gt; K -&gt; D -&gt; E -&gt; F.</t>
+  </si>
+  <si>
+    <t>The shortest path from node A to node G is A -&gt; H -&gt; G.</t>
+  </si>
+  <si>
+    <t>The shortest path from node E to node G is E -&gt; I -&gt; J -&gt; K -&gt; D -&gt; G.</t>
+  </si>
+  <si>
+    <t>The shortest path from node N to node L is N -&gt; M -&gt; S -&gt; R -&gt; L.</t>
   </si>
 </sst>
 </file>
@@ -2008,10 +2011,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2022,10 +2025,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2036,10 +2039,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2050,10 +2053,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2064,10 +2067,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2081,7 +2084,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2089,13 +2092,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2103,13 +2106,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2117,13 +2120,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2131,13 +2134,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2169,142 +2172,142 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2336,142 +2339,136 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
